--- a/src/main/resources/specification/Test Report.xlsx
+++ b/src/main/resources/specification/Test Report.xlsx
@@ -62,8 +62,8 @@
     <t xml:space="preserve">You can choose any RDBMS.</t>
   </si>
   <si>
-    <t xml:space="preserve">Schema created using JPA 
-and H2 Database based on 
+    <t xml:space="preserve">Database Schema created using
+JPA and H2 Database based on 
 Entity classes</t>
   </si>
   <si>
@@ -153,6 +153,7 @@
 - The resources H2 ( http://localhost:8080/h2 ) and Products ( http://localhost:8080/products ) are only available for the Super User
 - In the front end, forms are validated using “required” attribute from Bootstrap in Thymeleaf templates
 - In the back end, entity classes are configured using Bean Validation Annotations
+- Some basic unit tests were implemented
 * I suggested using Thymeleaf as a template engine for this application but I’m not really familiar with it, so I have problem in showing the Category DropDown field
   with the selected category highlighted in the Edit Product page. Unfortunately, there wasn’t enough time to find a solution for this.
 ** I suggested running this application in a docker container but I only could spend this weekend working in this test and also there wasn’t enough time for this.</t>
@@ -291,7 +292,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,11 +315,11 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.02"/>
@@ -446,7 +447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="135.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
         <v>25</v>
       </c>
